--- a/CashFlow/EXPE_cashflow.xlsx
+++ b/CashFlow/EXPE_cashflow.xlsx
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-1720000000.0</v>
+        <v>4944000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-1460000000.0</v>
+        <v>6673000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-1710000000.0</v>
+        <v>5342000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-998000000.0</v>
+        <v>4583000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>359000000.0</v>
+        <v>3034000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>232000000.0</v>
